--- a/data/trans_dic/P59A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P59A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,66%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,69%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>5,06; 11,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>8,15; 15,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>6,07; 13,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>5,72; 14,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,88; 6,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>4,79; 9,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>3,93; 8,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,58; 7,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>4,36; 7,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>6,83; 10,66</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>5,22; 9,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,97; 9,26</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,4%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,33%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>11,89; 17,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>13,08; 18,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>16,02; 21,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>13,76; 19,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>9,6; 14,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>14,79; 20,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>14,41; 19,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,87; 16,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>11,4; 15,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>14,39; 18,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>16,07; 19,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>13,61; 17,18</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>14,13; 25,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>14,19; 25,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>16,95; 27,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>14,74; 24,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,88</t>
+          <t>12,83; 23,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>15,99; 28,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>13,21; 22,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>16,07; 24,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>14,71; 22,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>16,45; 25,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>15,84; 23,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>16,77; 23,08</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,76%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,47%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,82; 15,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>13,48; 17,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>15,48; 19,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>13,75; 18,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>8,62; 12,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>12,4; 16,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,65; 16,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>11,64; 14,78</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>10,65; 13,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>13,47; 16,24</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>14,46; 17,04</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>13,13; 15,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P59A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,23%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 14,61</t>
+          <t>6,01; 15,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 7,71</t>
+          <t>3,82; 8,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,26</t>
+          <t>5,28; 9,85</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,16%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 19,31</t>
+          <t>13,71; 19,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,87; 16,46</t>
+          <t>10,43; 16,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 17,18</t>
+          <t>13,03; 17,18</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,34%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,71%</t>
+          <t>19,57%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 24,98</t>
+          <t>14,4; 24,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 24,2</t>
+          <t>16,32; 24,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,77; 23,08</t>
+          <t>16,55; 23,03</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,12%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,75; 18,14</t>
+          <t>13,72; 18,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 14,78</t>
+          <t>11,17; 14,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,13; 15,82</t>
+          <t>13,04; 16,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P59A-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P59A-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 11,42</t>
+          <t>5,12; 11,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,15; 15,39</t>
+          <t>8,29; 15,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,19</t>
+          <t>6,18; 13,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,01; 15,43</t>
+          <t>6,5; 15,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,97</t>
+          <t>3,04; 7,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,65</t>
+          <t>4,81; 9,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,67</t>
+          <t>3,99; 9,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,35</t>
+          <t>3,76; 8,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,8</t>
+          <t>4,3; 7,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,83; 10,66</t>
+          <t>6,58; 10,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 9,26</t>
+          <t>5,3; 9,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,28; 9,85</t>
+          <t>5,24; 9,52</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 17,17</t>
+          <t>11,86; 17,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,08; 18,55</t>
+          <t>13,37; 18,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,02; 21,51</t>
+          <t>16,41; 21,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 19,37</t>
+          <t>13,25; 19,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,6; 14,61</t>
+          <t>9,71; 14,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 20,27</t>
+          <t>14,4; 20,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,41; 19,23</t>
+          <t>14,44; 19,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 16,44</t>
+          <t>10,6; 16,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,4; 15,25</t>
+          <t>11,65; 15,26</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>14,39; 18,38</t>
+          <t>14,48; 18,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 19,65</t>
+          <t>16,18; 19,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,03; 17,18</t>
+          <t>13,1; 17,23</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,13; 25,39</t>
+          <t>14,26; 24,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 25,77</t>
+          <t>13,83; 25,99</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 27,59</t>
+          <t>16,42; 27,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,4; 24,53</t>
+          <t>13,56; 24,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,83; 23,47</t>
+          <t>12,61; 22,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 28,67</t>
+          <t>15,58; 29,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 22,61</t>
+          <t>13,08; 22,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 24,33</t>
+          <t>16,27; 24,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,71; 22,15</t>
+          <t>14,75; 22,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,45; 25,0</t>
+          <t>16,49; 25,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 23,3</t>
+          <t>16,49; 24,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>16,55; 23,03</t>
+          <t>16,24; 22,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 15,82</t>
+          <t>11,76; 15,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,48; 17,49</t>
+          <t>13,61; 17,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 19,6</t>
+          <t>15,36; 19,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,14</t>
+          <t>13,76; 18,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 12,06</t>
+          <t>8,6; 11,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 16,38</t>
+          <t>12,5; 16,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,65; 16,06</t>
+          <t>12,58; 15,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 14,83</t>
+          <t>11,33; 15,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,65; 13,38</t>
+          <t>10,55; 13,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,47; 16,24</t>
+          <t>13,36; 16,32</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,46; 17,04</t>
+          <t>14,39; 17,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 16,01</t>
+          <t>12,95; 15,91</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que vive actualmente en pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>24301</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35205</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24533</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>23190</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>23503</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>34218</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>23675</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23172</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>47804</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69423</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>48208</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>46361</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15842; 34179</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>25242; 46895</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16437; 35932</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14970; 35843</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15339; 35379</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>23787; 48848</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16211; 37567</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>15435; 33932</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>34999; 62732</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52550; 87266</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>35604; 63331</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>33569; 61064</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>108452</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>135108</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>175924</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>180144</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>78913</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>125619</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>154507</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>138938</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>187365</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>260727</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>330431</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>319082</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>88764; 130919</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>115120; 160122</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>153807; 202550</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>146245; 214089</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>63439; 96962</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>104813; 146711</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>132801; 178024</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>106584; 164853</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>163322; 213908</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>230061; 292717</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>300411; 364837</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>276334; 363533</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43526</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>41270</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53749</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>55172</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>38961</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>42903</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46016</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>66889</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>82488</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>84172</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>99764</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>122060</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32866; 55940</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29565; 55570</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40812; 68349</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39590; 72511</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28284; 51364</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30771; 57432</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33918; 58342</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>53952; 81368</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67089; 101454</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>67817; 104174</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>83747; 122248</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>101292; 142632</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>176279</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>211582</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>254206</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>258506</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>141378</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>202739</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>224198</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>228998</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>317657</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>414322</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>478404</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>487504</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>151556; 204574</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>187770; 242377</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>223046; 285012</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>223729; 299709</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>118904; 164076</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>177407; 234163</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>199292; 252336</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>198021; 263968</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>281649; 352236</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>373897; 456866</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>437005; 521440</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>437024; 536880</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>